--- a/data/processed/buddingtonite_ANU/calczaf_files/detlim/calczaf_outputs.xlsx
+++ b/data/processed/buddingtonite_ANU/calczaf_files/detlim/calczaf_outputs.xlsx
@@ -445,31 +445,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.033</v>
+        <v>0.04</v>
       </c>
       <c r="C2">
+        <v>0.037</v>
+      </c>
+      <c r="D2">
+        <v>0.04</v>
+      </c>
+      <c r="E2">
         <v>0.035</v>
       </c>
-      <c r="D2">
-        <v>0.035</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.036</v>
       </c>
-      <c r="F2">
-        <v>0.037</v>
-      </c>
       <c r="G2">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="H2">
         <v>0.002</v>
       </c>
       <c r="I2">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="J2">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -509,31 +509,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.052</v>
+        <v>0.063</v>
       </c>
       <c r="C5">
-        <v>0.054</v>
+        <v>0.059</v>
       </c>
       <c r="D5">
+        <v>0.062</v>
+      </c>
+      <c r="E5">
         <v>0.055</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.057</v>
       </c>
-      <c r="F5">
-        <v>0.058</v>
-      </c>
       <c r="G5">
+        <v>0.059</v>
+      </c>
+      <c r="H5">
+        <v>0.004</v>
+      </c>
+      <c r="I5">
         <v>0.055</v>
       </c>
-      <c r="H5">
-        <v>0.003</v>
-      </c>
-      <c r="I5">
-        <v>0.052</v>
-      </c>
       <c r="J5">
-        <v>0.058</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -573,31 +573,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.054</v>
+        <v>0.066</v>
       </c>
       <c r="C8">
+        <v>0.061</v>
+      </c>
+      <c r="D8">
+        <v>0.065</v>
+      </c>
+      <c r="E8">
         <v>0.057</v>
       </c>
-      <c r="D8">
-        <v>0.058</v>
-      </c>
-      <c r="E8">
-        <v>0.06</v>
-      </c>
       <c r="F8">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
       <c r="G8">
-        <v>0.058</v>
+        <v>0.062</v>
       </c>
       <c r="H8">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I8">
-        <v>0.054</v>
+        <v>0.057</v>
       </c>
       <c r="J8">
-        <v>0.061</v>
+        <v>0.066</v>
       </c>
     </row>
   </sheetData>
@@ -653,31 +653,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.04</v>
+        <v>0.049</v>
       </c>
       <c r="C2">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="D2">
+        <v>0.049</v>
+      </c>
+      <c r="E2">
         <v>0.043</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.044</v>
       </c>
-      <c r="F2">
-        <v>0.045</v>
-      </c>
       <c r="G2">
+        <v>0.046</v>
+      </c>
+      <c r="H2">
+        <v>0.003</v>
+      </c>
+      <c r="I2">
         <v>0.043</v>
       </c>
-      <c r="H2">
-        <v>0.002</v>
-      </c>
-      <c r="I2">
-        <v>0.04</v>
-      </c>
       <c r="J2">
-        <v>0.045</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -717,31 +717,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.063</v>
+        <v>0.077</v>
       </c>
       <c r="C5">
-        <v>0.066</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D5">
+        <v>0.076</v>
+      </c>
+      <c r="E5">
         <v>0.067</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F5">
-        <v>0.07099999999999999</v>
-      </c>
       <c r="G5">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.004</v>
+      </c>
+      <c r="I5">
         <v>0.067</v>
       </c>
-      <c r="H5">
-        <v>0.003</v>
-      </c>
-      <c r="I5">
-        <v>0.063</v>
-      </c>
       <c r="J5">
-        <v>0.07099999999999999</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -781,31 +781,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.066</v>
+        <v>0.08</v>
       </c>
       <c r="C8">
-        <v>0.06900000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="D8">
+        <v>0.08</v>
+      </c>
+      <c r="E8">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E8">
-        <v>0.073</v>
-      </c>
       <c r="F8">
-        <v>0.074</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G8">
+        <v>0.075</v>
+      </c>
+      <c r="H8">
+        <v>0.005</v>
+      </c>
+      <c r="I8">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H8">
-        <v>0.003</v>
-      </c>
-      <c r="I8">
-        <v>0.066</v>
-      </c>
       <c r="J8">
-        <v>0.074</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/buddingtonite_ANU/calczaf_files/detlim/calczaf_outputs.xlsx
+++ b/data/processed/buddingtonite_ANU/calczaf_files/detlim/calczaf_outputs.xlsx
@@ -445,19 +445,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="C2">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="D2">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="E2">
-        <v>0.035</v>
+        <v>0.041</v>
       </c>
       <c r="F2">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="G2">
         <v>0.038</v>
@@ -469,7 +469,7 @@
         <v>0.035</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -509,19 +509,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.063</v>
+        <v>0.054</v>
       </c>
       <c r="C5">
+        <v>0.061</v>
+      </c>
+      <c r="D5">
+        <v>0.057</v>
+      </c>
+      <c r="E5">
+        <v>0.064</v>
+      </c>
+      <c r="F5">
         <v>0.059</v>
-      </c>
-      <c r="D5">
-        <v>0.062</v>
-      </c>
-      <c r="E5">
-        <v>0.055</v>
-      </c>
-      <c r="F5">
-        <v>0.057</v>
       </c>
       <c r="G5">
         <v>0.059</v>
@@ -530,10 +530,10 @@
         <v>0.004</v>
       </c>
       <c r="I5">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="J5">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -573,19 +573,19 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.066</v>
+        <v>0.056</v>
       </c>
       <c r="C8">
-        <v>0.061</v>
+        <v>0.064</v>
       </c>
       <c r="D8">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="E8">
-        <v>0.057</v>
+        <v>0.067</v>
       </c>
       <c r="F8">
-        <v>0.059</v>
+        <v>0.062</v>
       </c>
       <c r="G8">
         <v>0.062</v>
@@ -594,10 +594,10 @@
         <v>0.004</v>
       </c>
       <c r="I8">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="J8">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
     </row>
   </sheetData>
@@ -653,28 +653,28 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <v>0.041</v>
+      </c>
+      <c r="C2">
+        <v>0.047</v>
+      </c>
+      <c r="D2">
+        <v>0.043</v>
+      </c>
+      <c r="E2">
         <v>0.049</v>
       </c>
-      <c r="C2">
-        <v>0.046</v>
-      </c>
-      <c r="D2">
-        <v>0.049</v>
-      </c>
-      <c r="E2">
-        <v>0.043</v>
-      </c>
       <c r="F2">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="G2">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="H2">
         <v>0.003</v>
       </c>
       <c r="I2">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="J2">
         <v>0.049</v>
@@ -717,28 +717,28 @@
         <v>7</v>
       </c>
       <c r="B5">
+        <v>0.065</v>
+      </c>
+      <c r="C5">
+        <v>0.073</v>
+      </c>
+      <c r="D5">
+        <v>0.068</v>
+      </c>
+      <c r="E5">
         <v>0.077</v>
       </c>
-      <c r="C5">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.076</v>
-      </c>
-      <c r="E5">
-        <v>0.067</v>
-      </c>
       <c r="F5">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G5">
-        <v>0.07199999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H5">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="I5">
-        <v>0.067</v>
+        <v>0.065</v>
       </c>
       <c r="J5">
         <v>0.077</v>
@@ -781,28 +781,28 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <v>0.067</v>
+      </c>
+      <c r="C8">
+        <v>0.076</v>
+      </c>
+      <c r="D8">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="E8">
         <v>0.08</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>0.074</v>
       </c>
-      <c r="D8">
-        <v>0.08</v>
-      </c>
-      <c r="E8">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.07199999999999999</v>
-      </c>
       <c r="G8">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="H8">
         <v>0.005</v>
       </c>
       <c r="I8">
-        <v>0.07000000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="J8">
         <v>0.08</v>
